--- a/data/input/absenteeism_data_8.xlsx
+++ b/data/input/absenteeism_data_8.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57023</v>
+        <v>77422</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauê Martins</t>
+          <t>Dr. Bryan Moraes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>6553.9</v>
+        <v>9080.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93613</v>
+        <v>8255</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Yago Teixeira</t>
+          <t>Leandro Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>8727.18</v>
+        <v>2668.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91369</v>
+        <v>73494</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Thales Santos</t>
+          <t>Pedro Miguel Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>12076.9</v>
+        <v>7201.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3372</v>
+        <v>16502</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia Barbosa</t>
+          <t>Anthony Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>7077.37</v>
+        <v>4261.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61907</v>
+        <v>29062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Clara Novaes</t>
+          <t>Kevin Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,56 +610,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>8394.370000000001</v>
+        <v>8706.870000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97199</v>
+        <v>82467</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lívia Cardoso</t>
+          <t>Dra. Emilly Gomes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>4173.9</v>
+        <v>6898.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66232</v>
+        <v>31561</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicolas Mendes</t>
+          <t>Enrico da Conceição</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>4887</v>
+        <v>5137.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62515</v>
+        <v>88036</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Júlia Barbosa</t>
+          <t>Sr. Benício Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>4257.83</v>
+        <v>4946.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20635</v>
+        <v>39277</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Vitória Cardoso</t>
+          <t>Emilly Ferreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>6467.66</v>
+        <v>6489.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38187</v>
+        <v>74754</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Natália Rocha</t>
+          <t>Maria Alice Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>6395.75</v>
+        <v>3849.8</v>
       </c>
     </row>
   </sheetData>
